--- a/input.xlsx
+++ b/input.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
+    <t>paris</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>checkin</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
     <t>berlin</t>
-  </si>
-  <si>
-    <t>paris</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>checkin</t>
-  </si>
-  <si>
-    <t>checkout</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,24 +394,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>42826</v>
@@ -428,7 +428,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
         <v>42826</v>

--- a/input.xlsx
+++ b/input.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>paris</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>city</t>
   </si>
@@ -34,7 +31,7 @@
     <t>checkout</t>
   </si>
   <si>
-    <t>berlin</t>
+    <t>Yerevan</t>
   </si>
 </sst>
 </file>
@@ -385,63 +382,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
     <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>42826</v>
       </c>
       <c r="C2" s="1">
-        <v>42827</v>
+        <v>42835</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42826</v>
-      </c>
-      <c r="C3" s="1">
-        <v>42840</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -31,7 +31,7 @@
     <t>checkout</t>
   </si>
   <si>
-    <t>Yerevan</t>
+    <t>London</t>
   </si>
 </sst>
 </file>
